--- a/src/Services/Authentication/Authentication.API/Templates/Book1.xlsx
+++ b/src/Services/Authentication/Authentication.API/Templates/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hieu.NguyenDuy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sources\ExOneApi\src\Services\Authentication\Authentication.API\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A0FC31-8BDF-441F-9716-79A888A24396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAFB08-A736-4A6C-9642-AEC68A399EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{707D6861-421F-475D-94A9-FBB84E289E47}"/>
+    <workbookView xWindow="5400" yWindow="345" windowWidth="23250" windowHeight="14595" xr2:uid="{707D6861-421F-475D-94A9-FBB84E289E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,11 +72,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,12 +101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF134298"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,80 +115,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDEE2E6"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDEE2E6"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFDEE2E6"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDEE2E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE2E6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE2E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE2E6"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFDEE2E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE2E6"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFDEE2E6"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFDEE2E6"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFDEE2E6"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FFDEE2E6"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,24 +170,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,56 +511,65 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
